--- a/data_month/zb/能源/能源主要产品产量/煤层气.xlsx
+++ b/data_month/zb/能源/能源主要产品产量/煤层气.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,2086 +454,2424 @@
           <t>煤层气产量_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>煤层气产量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>35</v>
-      </c>
+          <t>2012-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>2.7</v>
       </c>
       <c r="D2" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E2" t="n">
-        <v>22</v>
+        <v>2.7</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>66.7</v>
       </c>
       <c r="C3" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D3" t="n">
-        <v>30.7</v>
+        <v>5.2</v>
       </c>
       <c r="E3" t="n">
-        <v>21.8</v>
+        <v>40.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.8</v>
+        <v>13.6</v>
       </c>
       <c r="C4" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D4" t="n">
-        <v>33.9</v>
+        <v>7.8</v>
       </c>
       <c r="E4" t="n">
-        <v>21.5</v>
+        <v>32.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2012-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>22.7</v>
+      </c>
       <c r="C5" t="n">
         <v>2.7</v>
       </c>
       <c r="D5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F5" t="n">
         <v>2.7</v>
       </c>
-      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.7</v>
+        <v>21.7</v>
       </c>
       <c r="C6" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D6" t="n">
-        <v>5.2</v>
+        <v>13.3</v>
       </c>
       <c r="E6" t="n">
-        <v>40.5</v>
+        <v>27.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.800000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.6</v>
+        <v>22.7</v>
       </c>
       <c r="C7" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D7" t="n">
-        <v>7.8</v>
+        <v>16.2</v>
       </c>
       <c r="E7" t="n">
-        <v>32.2</v>
+        <v>28.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.899999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.7</v>
+        <v>18.2</v>
       </c>
       <c r="C8" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D8" t="n">
-        <v>10.5</v>
+        <v>18.7</v>
       </c>
       <c r="E8" t="n">
-        <v>29.6</v>
+        <v>26.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.7</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
         <v>2.8</v>
       </c>
       <c r="D9" t="n">
-        <v>13.3</v>
+        <v>21.5</v>
       </c>
       <c r="E9" t="n">
-        <v>27.9</v>
+        <v>24.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.800000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.7</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>16.2</v>
+        <v>24.5</v>
       </c>
       <c r="E10" t="n">
-        <v>28.6</v>
+        <v>20.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.2</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D11" t="n">
-        <v>18.7</v>
+        <v>27.7</v>
       </c>
       <c r="E11" t="n">
-        <v>26.4</v>
+        <v>22</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.199999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D12" t="n">
-        <v>21.5</v>
+        <v>30.7</v>
       </c>
       <c r="E12" t="n">
-        <v>24.3</v>
+        <v>21.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D13" t="n">
-        <v>24.5</v>
+        <v>33.9</v>
       </c>
       <c r="E13" t="n">
-        <v>20.7</v>
+        <v>21.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.199999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.89</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.38</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>33.17</v>
+        <v>6.26</v>
       </c>
       <c r="E14" t="n">
-        <v>16.05</v>
+        <v>18.31</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.83</v>
+        <v>20.8</v>
       </c>
       <c r="C15" t="n">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="D15" t="n">
-        <v>36.56</v>
+        <v>9.67</v>
       </c>
       <c r="E15" t="n">
-        <v>15.24</v>
+        <v>19.16</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.74</v>
+        <v>17.11</v>
       </c>
       <c r="C16" t="n">
-        <v>4.25</v>
+        <v>3.39</v>
       </c>
       <c r="D16" t="n">
-        <v>41.08</v>
+        <v>13.06</v>
       </c>
       <c r="E16" t="n">
-        <v>17.25</v>
+        <v>18.62</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.390000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>12.62</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="D17" t="n">
-        <v>6.26</v>
+        <v>16.28</v>
       </c>
       <c r="E17" t="n">
-        <v>18.31</v>
+        <v>16.61</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.220000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.8</v>
+        <v>10.26</v>
       </c>
       <c r="C18" t="n">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="D18" t="n">
-        <v>9.67</v>
+        <v>19.67</v>
       </c>
       <c r="E18" t="n">
-        <v>19.16</v>
+        <v>16.03</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.390000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.11</v>
+        <v>18.71</v>
       </c>
       <c r="C19" t="n">
-        <v>3.39</v>
+        <v>3.33</v>
       </c>
       <c r="D19" t="n">
-        <v>13.06</v>
+        <v>23</v>
       </c>
       <c r="E19" t="n">
-        <v>18.62</v>
+        <v>16.41</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3.329999999999998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12.62</v>
+        <v>16.29</v>
       </c>
       <c r="C20" t="n">
-        <v>3.15</v>
+        <v>3.33</v>
       </c>
       <c r="D20" t="n">
-        <v>16.28</v>
+        <v>26.33</v>
       </c>
       <c r="E20" t="n">
-        <v>16.61</v>
+        <v>16.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.329999999999998</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10.26</v>
+        <v>10.97</v>
       </c>
       <c r="C21" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="D21" t="n">
-        <v>19.67</v>
+        <v>29.78</v>
       </c>
       <c r="E21" t="n">
-        <v>16.03</v>
+        <v>15.74</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.450000000000003</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.71</v>
+        <v>18.89</v>
       </c>
       <c r="C22" t="n">
-        <v>3.33</v>
+        <v>3.38</v>
       </c>
       <c r="D22" t="n">
-        <v>23</v>
+        <v>33.17</v>
       </c>
       <c r="E22" t="n">
-        <v>16.41</v>
+        <v>16.05</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.390000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16.29</v>
+        <v>7.83</v>
       </c>
       <c r="C23" t="n">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="D23" t="n">
-        <v>26.33</v>
+        <v>36.56</v>
       </c>
       <c r="E23" t="n">
-        <v>16.4</v>
+        <v>15.24</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.390000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.97</v>
+        <v>28.74</v>
       </c>
       <c r="C24" t="n">
-        <v>3.45</v>
+        <v>4.25</v>
       </c>
       <c r="D24" t="n">
-        <v>29.78</v>
+        <v>41.08</v>
       </c>
       <c r="E24" t="n">
-        <v>15.74</v>
+        <v>17.25</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.519999999999996</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.98</v>
+        <v>16.07</v>
       </c>
       <c r="C25" t="n">
-        <v>5.13</v>
+        <v>3.91</v>
       </c>
       <c r="D25" t="n">
-        <v>44.96</v>
+        <v>7.85</v>
       </c>
       <c r="E25" t="n">
-        <v>22.49</v>
+        <v>22.08</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7.85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>33.21</v>
+        <v>19.37</v>
       </c>
       <c r="C26" t="n">
-        <v>5.12</v>
+        <v>4.07</v>
       </c>
       <c r="D26" t="n">
-        <v>50.08</v>
+        <v>11.95</v>
       </c>
       <c r="E26" t="n">
-        <v>23.5</v>
+        <v>21.56</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>32.41</v>
+        <v>17.58</v>
       </c>
       <c r="C27" t="n">
-        <v>6.23</v>
+        <v>4.11</v>
       </c>
       <c r="D27" t="n">
-        <v>56.91</v>
+        <v>16.13</v>
       </c>
       <c r="E27" t="n">
-        <v>24.92</v>
+        <v>20.62</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.07</v>
+        <v>21.61</v>
       </c>
       <c r="C28" t="n">
-        <v>3.91</v>
+        <v>4.21</v>
       </c>
       <c r="D28" t="n">
-        <v>7.85</v>
+        <v>21.18</v>
       </c>
       <c r="E28" t="n">
-        <v>22.08</v>
+        <v>19.73</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.050000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.37</v>
+        <v>28.11</v>
       </c>
       <c r="C29" t="n">
-        <v>4.07</v>
+        <v>4.59</v>
       </c>
       <c r="D29" t="n">
-        <v>11.95</v>
+        <v>25.77</v>
       </c>
       <c r="E29" t="n">
-        <v>21.56</v>
+        <v>21.05</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17.58</v>
+        <v>16.39</v>
       </c>
       <c r="C30" t="n">
-        <v>4.11</v>
+        <v>4.41</v>
       </c>
       <c r="D30" t="n">
-        <v>16.13</v>
+        <v>30.18</v>
       </c>
       <c r="E30" t="n">
-        <v>20.62</v>
+        <v>20.34</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.61</v>
+        <v>26.92</v>
       </c>
       <c r="C31" t="n">
-        <v>4.21</v>
+        <v>4.92</v>
       </c>
       <c r="D31" t="n">
-        <v>21.18</v>
+        <v>35.37</v>
       </c>
       <c r="E31" t="n">
-        <v>19.73</v>
+        <v>22.14</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.189999999999998</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>28.11</v>
+        <v>23.65</v>
       </c>
       <c r="C32" t="n">
-        <v>4.59</v>
+        <v>4.81</v>
       </c>
       <c r="D32" t="n">
-        <v>25.77</v>
+        <v>39.81</v>
       </c>
       <c r="E32" t="n">
-        <v>21.05</v>
+        <v>21.2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.440000000000005</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16.39</v>
+        <v>32.98</v>
       </c>
       <c r="C33" t="n">
-        <v>4.41</v>
+        <v>5.13</v>
       </c>
       <c r="D33" t="n">
-        <v>30.18</v>
+        <v>44.96</v>
       </c>
       <c r="E33" t="n">
-        <v>20.34</v>
+        <v>22.49</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5.149999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.92</v>
+        <v>33.21</v>
       </c>
       <c r="C34" t="n">
-        <v>4.92</v>
+        <v>5.12</v>
       </c>
       <c r="D34" t="n">
-        <v>35.37</v>
+        <v>50.08</v>
       </c>
       <c r="E34" t="n">
-        <v>22.14</v>
+        <v>23.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5.119999999999997</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.65</v>
+        <v>32.41</v>
       </c>
       <c r="C35" t="n">
-        <v>4.81</v>
+        <v>6.23</v>
       </c>
       <c r="D35" t="n">
-        <v>39.81</v>
+        <v>56.91</v>
       </c>
       <c r="E35" t="n">
-        <v>21.2</v>
+        <v>24.92</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6.829999999999998</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.99</v>
+        <v>25.96</v>
       </c>
       <c r="C36" t="n">
-        <v>5.4401</v>
+        <v>5.22</v>
       </c>
       <c r="D36" t="n">
-        <v>51.8662</v>
+        <v>10.54</v>
       </c>
       <c r="E36" t="n">
-        <v>14.41</v>
+        <v>26.91</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10.54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.7</v>
+        <v>24.72</v>
       </c>
       <c r="C37" t="n">
-        <v>5.5241</v>
+        <v>5.39</v>
       </c>
       <c r="D37" t="n">
-        <v>57.3155</v>
+        <v>15.96</v>
       </c>
       <c r="E37" t="n">
-        <v>13.47</v>
+        <v>26.09</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5.420000000000002</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-8.85</v>
+        <v>16.11</v>
       </c>
       <c r="C38" t="n">
-        <v>5.6798</v>
+        <v>5.08</v>
       </c>
       <c r="D38" t="n">
-        <v>63.3912</v>
+        <v>20.64</v>
       </c>
       <c r="E38" t="n">
-        <v>10.96</v>
+        <v>21.3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4.68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25.96</v>
+        <v>23.37</v>
       </c>
       <c r="C39" t="n">
-        <v>5.22</v>
+        <v>5.2405</v>
       </c>
       <c r="D39" t="n">
-        <v>10.54</v>
+        <v>25.8803</v>
       </c>
       <c r="E39" t="n">
-        <v>26.91</v>
+        <v>21.43</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.240299999999998</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.72</v>
+        <v>7.53</v>
       </c>
       <c r="C40" t="n">
-        <v>5.39</v>
+        <v>4.9447</v>
       </c>
       <c r="D40" t="n">
-        <v>15.96</v>
+        <v>31.3988</v>
       </c>
       <c r="E40" t="n">
-        <v>26.09</v>
+        <v>21.17</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5.518500000000003</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.11</v>
+        <v>15.55</v>
       </c>
       <c r="C41" t="n">
-        <v>5.08</v>
+        <v>5.1879</v>
       </c>
       <c r="D41" t="n">
-        <v>20.64</v>
+        <v>36.0576</v>
       </c>
       <c r="E41" t="n">
-        <v>21.3</v>
+        <v>18.6</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4.658799999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>23.37</v>
+        <v>7.96</v>
       </c>
       <c r="C42" t="n">
-        <v>5.2405</v>
+        <v>5.2691</v>
       </c>
       <c r="D42" t="n">
-        <v>25.8803</v>
+        <v>41.3267</v>
       </c>
       <c r="E42" t="n">
-        <v>21.43</v>
+        <v>17.13</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5.269100000000002</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.53</v>
+        <v>4.74</v>
       </c>
       <c r="C43" t="n">
-        <v>4.9447</v>
+        <v>5.7304</v>
       </c>
       <c r="D43" t="n">
-        <v>31.3988</v>
+        <v>52.9969</v>
       </c>
       <c r="E43" t="n">
-        <v>21.17</v>
+        <v>16.92</v>
+      </c>
+      <c r="F43" t="n">
+        <v>11.67019999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15.55</v>
+        <v>4.99</v>
       </c>
       <c r="C44" t="n">
-        <v>5.1879</v>
+        <v>5.4401</v>
       </c>
       <c r="D44" t="n">
-        <v>36.0576</v>
+        <v>51.8662</v>
       </c>
       <c r="E44" t="n">
-        <v>18.6</v>
+        <v>14.41</v>
+      </c>
+      <c r="F44" t="n">
+        <v>51.8662</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7.96</v>
+        <v>6.7</v>
       </c>
       <c r="C45" t="n">
-        <v>5.2691</v>
+        <v>5.5241</v>
       </c>
       <c r="D45" t="n">
-        <v>41.3267</v>
+        <v>57.3155</v>
       </c>
       <c r="E45" t="n">
-        <v>17.13</v>
+        <v>13.47</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5.449300000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.74</v>
+        <v>-8.85</v>
       </c>
       <c r="C46" t="n">
-        <v>5.7304</v>
+        <v>5.6798</v>
       </c>
       <c r="D46" t="n">
-        <v>52.9969</v>
+        <v>63.3912</v>
       </c>
       <c r="E46" t="n">
-        <v>16.92</v>
+        <v>10.96</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6.075699999999998</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="C47" t="n">
-        <v>5.9</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>61.6</v>
+        <v>11.444</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>11.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>11.444</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7.3</v>
+        <v>18.33</v>
       </c>
       <c r="C48" t="n">
-        <v>6.5</v>
+        <v>6.318</v>
       </c>
       <c r="D48" t="n">
-        <v>68.3</v>
+        <v>17.994</v>
       </c>
       <c r="E48" t="n">
-        <v>8.300000000000001</v>
+        <v>14.61</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6.549999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="D49" t="n">
-        <v>74.8</v>
+        <v>23.7</v>
       </c>
       <c r="E49" t="n">
-        <v>7.8</v>
+        <v>13.1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5.706</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6.1</v>
+      </c>
       <c r="D50" t="n">
-        <v>11.444</v>
+        <v>31.1</v>
       </c>
       <c r="E50" t="n">
-        <v>11.3</v>
+        <v>12.3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7.400000000000002</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>18.33</v>
+        <v>14.7</v>
       </c>
       <c r="C51" t="n">
-        <v>6.318</v>
+        <v>6.1</v>
       </c>
       <c r="D51" t="n">
-        <v>17.994</v>
+        <v>36.4</v>
       </c>
       <c r="E51" t="n">
-        <v>14.61</v>
+        <v>8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.299999999999997</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>8.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="C52" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="D52" t="n">
-        <v>23.7</v>
+        <v>43.1</v>
       </c>
       <c r="E52" t="n">
-        <v>13.1</v>
+        <v>9.4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6.700000000000003</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
       <c r="C53" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="D53" t="n">
-        <v>31.1</v>
+        <v>49.7</v>
       </c>
       <c r="E53" t="n">
-        <v>12.3</v>
+        <v>9.6</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6.600000000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>14.7</v>
+        <v>5.7</v>
       </c>
       <c r="C54" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>36.4</v>
+        <v>55.7</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>10.5</v>
+        <v>-0.7</v>
       </c>
       <c r="C55" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="D55" t="n">
-        <v>43.1</v>
+        <v>61.6</v>
       </c>
       <c r="E55" t="n">
-        <v>9.4</v>
+        <v>8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5.899999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>9.4</v>
+        <v>7.3</v>
       </c>
       <c r="C56" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D56" t="n">
-        <v>49.7</v>
+        <v>68.3</v>
       </c>
       <c r="E56" t="n">
-        <v>9.6</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F56" t="n">
+        <v>6.699999999999996</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="D57" t="n">
-        <v>55.7</v>
+        <v>74.8</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>7.8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5.9</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>57</v>
+        <v>12.5</v>
       </c>
       <c r="E58" t="n">
-        <v>6.5</v>
+        <v>2.1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>14.3</v>
+        <v>-0.3</v>
       </c>
       <c r="C59" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D59" t="n">
-        <v>63.9</v>
+        <v>19.1</v>
       </c>
       <c r="E59" t="n">
-        <v>8.199999999999999</v>
+        <v>3.2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6.600000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="C60" t="n">
         <v>6.4</v>
       </c>
       <c r="D60" t="n">
-        <v>70.2</v>
+        <v>25.4</v>
       </c>
       <c r="E60" t="n">
-        <v>8.199999999999999</v>
+        <v>4.3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>6.299999999999997</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6.2</v>
+      </c>
       <c r="D61" t="n">
-        <v>12.5</v>
+        <v>31.6</v>
       </c>
       <c r="E61" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6.200000000000003</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.3</v>
+        <v>7.8</v>
       </c>
       <c r="C62" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="D62" t="n">
-        <v>19.1</v>
+        <v>33.3</v>
       </c>
       <c r="E62" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.699999999999996</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7.1</v>
+        <v>-0.7</v>
       </c>
       <c r="C63" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="D63" t="n">
-        <v>25.4</v>
+        <v>38.7</v>
       </c>
       <c r="E63" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5.400000000000006</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.6</v>
+        <v>7.2</v>
       </c>
       <c r="C64" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="D64" t="n">
-        <v>31.6</v>
+        <v>44.6</v>
       </c>
       <c r="E64" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5.899999999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>7.8</v>
+        <v>11.4</v>
       </c>
       <c r="C65" t="n">
         <v>5.7</v>
       </c>
       <c r="D65" t="n">
-        <v>33.3</v>
+        <v>51.1</v>
       </c>
       <c r="E65" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.7</v>
+        <v>15.3</v>
       </c>
       <c r="C66" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="D66" t="n">
-        <v>38.7</v>
+        <v>57</v>
       </c>
       <c r="E66" t="n">
-        <v>2.7</v>
+        <v>6.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>5.899999999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>7.2</v>
+        <v>14.3</v>
       </c>
       <c r="C67" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="D67" t="n">
-        <v>44.6</v>
+        <v>63.9</v>
       </c>
       <c r="E67" t="n">
-        <v>3.3</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F67" t="n">
+        <v>6.899999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>11.4</v>
+        <v>8.5</v>
       </c>
       <c r="C68" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="D68" t="n">
-        <v>51.1</v>
+        <v>70.2</v>
       </c>
       <c r="E68" t="n">
-        <v>5.6</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6.300000000000004</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C69" t="n">
-        <v>5.8</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>60</v>
+        <v>11.8</v>
       </c>
       <c r="E69" t="n">
-        <v>7.3</v>
+        <v>11.5</v>
+      </c>
+      <c r="F69" t="n">
+        <v>11.8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="C70" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="D70" t="n">
-        <v>66.3</v>
+        <v>17.5</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5.699999999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4.2</v>
+        <v>9.4</v>
       </c>
       <c r="C71" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>72.59999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="E71" t="n">
-        <v>5.8</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F71" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5.8</v>
+      </c>
       <c r="D72" t="n">
-        <v>11.8</v>
+        <v>29.4</v>
       </c>
       <c r="E72" t="n">
-        <v>11.5</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F72" t="n">
+        <v>5.899999999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>17.5</v>
+        <v>35.6</v>
       </c>
       <c r="E73" t="n">
-        <v>8.699999999999999</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6.200000000000003</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="D74" t="n">
-        <v>23.5</v>
+        <v>41.5</v>
       </c>
       <c r="E74" t="n">
-        <v>8.300000000000001</v>
+        <v>9.9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5.899999999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>10.1</v>
+        <v>0.6</v>
       </c>
       <c r="C75" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>29.4</v>
+        <v>47.7</v>
       </c>
       <c r="E75" t="n">
-        <v>8.699999999999999</v>
+        <v>9</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6.200000000000003</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>9.699999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="C76" t="n">
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>35.6</v>
+        <v>54.1</v>
       </c>
       <c r="E76" t="n">
-        <v>9.699999999999999</v>
+        <v>8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>6.399999999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9.800000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="C77" t="n">
         <v>5.8</v>
       </c>
       <c r="D77" t="n">
-        <v>41.5</v>
+        <v>60</v>
       </c>
       <c r="E77" t="n">
-        <v>9.9</v>
+        <v>7.3</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5.899999999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="C78" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D78" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E78" t="n">
         <v>6</v>
       </c>
-      <c r="D78" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="E78" t="n">
-        <v>9</v>
+      <c r="F78" t="n">
+        <v>6.299999999999997</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="D79" t="n">
-        <v>54.1</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>5.8</v>
+      </c>
+      <c r="F79" t="n">
+        <v>6.299999999999997</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C80" t="n">
-        <v>6.9</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>70.40000000000001</v>
+        <v>13.4</v>
       </c>
       <c r="E80" t="n">
-        <v>16.3</v>
+        <v>11.9</v>
+      </c>
+      <c r="F80" t="n">
+        <v>13.4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>18.8</v>
+        <v>15.9</v>
       </c>
       <c r="C81" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="D81" t="n">
-        <v>78.59999999999999</v>
+        <v>20.5</v>
       </c>
       <c r="E81" t="n">
-        <v>17.5</v>
+        <v>14.9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>7.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>14.5</v>
+        <v>12.6</v>
       </c>
       <c r="C82" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="D82" t="n">
-        <v>88.8</v>
+        <v>27.3</v>
       </c>
       <c r="E82" t="n">
-        <v>13.8</v>
+        <v>14.3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>6.800000000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6.9</v>
+      </c>
       <c r="D83" t="n">
-        <v>13.4</v>
+        <v>34.4</v>
       </c>
       <c r="E83" t="n">
-        <v>11.9</v>
+        <v>15.4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>7.099999999999998</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="C84" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="D84" t="n">
-        <v>20.5</v>
+        <v>41.5</v>
       </c>
       <c r="E84" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>7.100000000000001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>12.6</v>
+        <v>21.9</v>
       </c>
       <c r="C85" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="D85" t="n">
-        <v>27.3</v>
+        <v>48.9</v>
       </c>
       <c r="E85" t="n">
-        <v>14.3</v>
+        <v>15.9</v>
+      </c>
+      <c r="F85" t="n">
+        <v>7.399999999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>16.1</v>
+        <v>14.3</v>
       </c>
       <c r="C86" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>34.4</v>
+        <v>55.8</v>
       </c>
       <c r="E86" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>6.899999999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>15.4</v>
+        <v>17.2</v>
       </c>
       <c r="C87" t="n">
         <v>7.1</v>
       </c>
       <c r="D87" t="n">
-        <v>41.5</v>
+        <v>63.5</v>
       </c>
       <c r="E87" t="n">
-        <v>14.5</v>
+        <v>16.4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>7.700000000000003</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>21.9</v>
+        <v>16.4</v>
       </c>
       <c r="C88" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="D88" t="n">
-        <v>48.9</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>15.9</v>
+        <v>16.3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>6.900000000000006</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>14.3</v>
+        <v>18.8</v>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D89" t="n">
-        <v>55.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>15.1</v>
+        <v>17.5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8.199999999999989</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>17.2</v>
+        <v>14.5</v>
       </c>
       <c r="C90" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="D90" t="n">
-        <v>63.5</v>
+        <v>88.8</v>
       </c>
       <c r="E90" t="n">
-        <v>16.4</v>
+        <v>13.8</v>
+      </c>
+      <c r="F90" t="n">
+        <v>10.2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C91" t="n">
-        <v>9.1</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>80.40000000000001</v>
+        <v>14.8</v>
       </c>
       <c r="E91" t="n">
-        <v>7.9</v>
+        <v>3.5</v>
+      </c>
+      <c r="F91" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3.1</v>
+        <v>10.5</v>
       </c>
       <c r="C92" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="D92" t="n">
-        <v>89.5</v>
+        <v>23</v>
       </c>
       <c r="E92" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>35.1</v>
+        <v>8.1</v>
       </c>
       <c r="C93" t="n">
-        <v>11.5</v>
+        <v>7.9</v>
       </c>
       <c r="D93" t="n">
-        <v>102.3</v>
+        <v>30.9</v>
       </c>
       <c r="E93" t="n">
-        <v>10.1</v>
+        <v>6.2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>7.899999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C94" t="n">
+        <v>8.1</v>
+      </c>
       <c r="D94" t="n">
-        <v>14.8</v>
+        <v>39.1</v>
       </c>
       <c r="E94" t="n">
-        <v>3.5</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8.200000000000003</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>10.5</v>
+        <v>-1.8</v>
       </c>
       <c r="C95" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="D95" t="n">
-        <v>23</v>
+        <v>46.7</v>
       </c>
       <c r="E95" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>7.600000000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>8.1</v>
+        <v>4.8</v>
       </c>
       <c r="C96" t="n">
         <v>7.9</v>
       </c>
       <c r="D96" t="n">
-        <v>30.9</v>
+        <v>54.6</v>
       </c>
       <c r="E96" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>7.899999999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>15.8</v>
+        <v>10.8</v>
       </c>
       <c r="C97" t="n">
         <v>8.1</v>
       </c>
       <c r="D97" t="n">
-        <v>39.1</v>
+        <v>62.7</v>
       </c>
       <c r="E97" t="n">
-        <v>8.199999999999999</v>
+        <v>6.9</v>
+      </c>
+      <c r="F97" t="n">
+        <v>8.100000000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1.8</v>
+        <v>10.8</v>
       </c>
       <c r="C98" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="D98" t="n">
-        <v>46.7</v>
+        <v>71.2</v>
       </c>
       <c r="E98" t="n">
-        <v>6.4</v>
+        <v>7</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>4.8</v>
+        <v>13.5</v>
       </c>
       <c r="C99" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="E99" t="n">
         <v>7.9</v>
       </c>
-      <c r="D99" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="E99" t="n">
-        <v>6.4</v>
+      <c r="F99" t="n">
+        <v>9.200000000000003</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>10.8</v>
+        <v>3.1</v>
       </c>
       <c r="C100" t="n">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
-        <v>62.7</v>
+        <v>89.5</v>
       </c>
       <c r="E100" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>9.099999999999994</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>10.8</v>
+        <v>35.1</v>
       </c>
       <c r="C101" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="D101" t="n">
-        <v>71.2</v>
+        <v>102.3</v>
       </c>
       <c r="E101" t="n">
-        <v>7</v>
+        <v>10.1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>12.8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="C102" t="n">
-        <v>8.710000000000001</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>85.7</v>
+        <v>16.5</v>
       </c>
       <c r="E102" t="n">
-        <v>7.12</v>
+        <v>12.7</v>
+      </c>
+      <c r="F102" t="n">
+        <v>16.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>5.35</v>
+        <v>14.6</v>
       </c>
       <c r="C103" t="n">
-        <v>9.119999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>94.83</v>
+        <v>25.3</v>
       </c>
       <c r="E103" t="n">
-        <v>6.96</v>
+        <v>14.3</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-6.81</v>
+        <v>5.9</v>
       </c>
       <c r="C104" t="n">
-        <v>9.67</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>104.73</v>
+        <v>33.5</v>
       </c>
       <c r="E104" t="n">
-        <v>5.38</v>
+        <v>12.2</v>
+      </c>
+      <c r="F104" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C105" t="n">
+        <v>8.56</v>
+      </c>
       <c r="D105" t="n">
-        <v>16.5</v>
+        <v>43.42</v>
       </c>
       <c r="E105" t="n">
-        <v>12.7</v>
+        <v>9.779999999999999</v>
+      </c>
+      <c r="F105" t="n">
+        <v>9.920000000000002</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>14.6</v>
+        <v>7.59</v>
       </c>
       <c r="C106" t="n">
-        <v>8.800000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="D106" t="n">
-        <v>25.3</v>
+        <v>50.79</v>
       </c>
       <c r="E106" t="n">
-        <v>14.3</v>
+        <v>9.73</v>
+      </c>
+      <c r="F106" t="n">
+        <v>7.369999999999997</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>5.9</v>
+        <v>5.12</v>
       </c>
       <c r="C107" t="n">
-        <v>8.300000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="D107" t="n">
-        <v>33.5</v>
+        <v>58.44</v>
       </c>
       <c r="E107" t="n">
-        <v>12.2</v>
+        <v>9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7.649999999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3.9</v>
+        <v>8.51</v>
       </c>
       <c r="C108" t="n">
-        <v>8.56</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>43.42</v>
+        <v>67.02</v>
       </c>
       <c r="E108" t="n">
-        <v>9.779999999999999</v>
+        <v>8.970000000000001</v>
+      </c>
+      <c r="F108" t="n">
+        <v>8.579999999999998</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>7.59</v>
+        <v>4.36</v>
       </c>
       <c r="C109" t="n">
-        <v>8.18</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>50.79</v>
+        <v>75.52</v>
       </c>
       <c r="E109" t="n">
-        <v>9.73</v>
+        <v>8.359999999999999</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>5.12</v>
+        <v>2.21</v>
       </c>
       <c r="C110" t="n">
-        <v>8.18</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>58.44</v>
+        <v>85.7</v>
       </c>
       <c r="E110" t="n">
-        <v>9</v>
+        <v>7.12</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10.18000000000001</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>8.51</v>
+        <v>5.35</v>
       </c>
       <c r="C111" t="n">
-        <v>8.539999999999999</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>67.02</v>
+        <v>94.83</v>
       </c>
       <c r="E111" t="n">
-        <v>8.970000000000001</v>
+        <v>6.96</v>
+      </c>
+      <c r="F111" t="n">
+        <v>9.129999999999995</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.36</v>
+        <v>-6.81</v>
       </c>
       <c r="C112" t="n">
-        <v>8.529999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="D112" t="n">
-        <v>75.52</v>
+        <v>104.73</v>
       </c>
       <c r="E112" t="n">
-        <v>8.359999999999999</v>
+        <v>5.38</v>
+      </c>
+      <c r="F112" t="n">
+        <v>9.900000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/能源/能源主要产品产量/煤层气.xlsx
+++ b/data_month/zb/能源/能源主要产品产量/煤层气.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,2424 +454,2382 @@
           <t>煤层气产量_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>煤层气产量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2012-01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2012-10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>35</v>
+      </c>
       <c r="C2" t="n">
         <v>2.7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>2.7</v>
+        <v>27.7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D3" t="n">
-        <v>5.2</v>
+        <v>30.7</v>
       </c>
       <c r="E3" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.5</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.6</v>
+        <v>14.8</v>
       </c>
       <c r="C4" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D4" t="n">
-        <v>7.8</v>
+        <v>33.9</v>
       </c>
       <c r="E4" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.6</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>22.7</v>
-      </c>
+          <t>2012-01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>2.7</v>
       </c>
       <c r="D5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F5" t="n">
         <v>2.7</v>
       </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.7</v>
+        <v>66.7</v>
       </c>
       <c r="C6" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D6" t="n">
-        <v>13.3</v>
+        <v>5.2</v>
       </c>
       <c r="E6" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.800000000000001</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.7</v>
+        <v>13.6</v>
       </c>
       <c r="C7" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D7" t="n">
-        <v>16.2</v>
+        <v>7.8</v>
       </c>
       <c r="E7" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.899999999999999</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.2</v>
+        <v>22.7</v>
       </c>
       <c r="C8" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D8" t="n">
-        <v>18.7</v>
+        <v>10.5</v>
       </c>
       <c r="E8" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.5</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>21.7</v>
       </c>
       <c r="C9" t="n">
         <v>2.8</v>
       </c>
       <c r="D9" t="n">
-        <v>21.5</v>
+        <v>13.3</v>
       </c>
       <c r="E9" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.800000000000001</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D10" t="n">
-        <v>24.5</v>
+        <v>16.2</v>
       </c>
       <c r="E10" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>18.2</v>
       </c>
       <c r="C11" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D11" t="n">
-        <v>27.7</v>
+        <v>18.7</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3.199999999999999</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D12" t="n">
-        <v>30.7</v>
+        <v>21.5</v>
       </c>
       <c r="E12" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>33.9</v>
+        <v>24.5</v>
       </c>
       <c r="E13" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3.199999999999999</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>18.89</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="D14" t="n">
-        <v>6.26</v>
+        <v>33.17</v>
       </c>
       <c r="E14" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.26</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.8</v>
+        <v>7.83</v>
       </c>
       <c r="C15" t="n">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="D15" t="n">
-        <v>9.67</v>
+        <v>36.56</v>
       </c>
       <c r="E15" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3.41</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.11</v>
+        <v>28.74</v>
       </c>
       <c r="C16" t="n">
-        <v>3.39</v>
+        <v>4.25</v>
       </c>
       <c r="D16" t="n">
-        <v>13.06</v>
+        <v>41.08</v>
       </c>
       <c r="E16" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3.390000000000001</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12.62</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>16.28</v>
+        <v>6.26</v>
       </c>
       <c r="E17" t="n">
-        <v>16.61</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3.220000000000001</v>
+        <v>18.31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.26</v>
+        <v>20.8</v>
       </c>
       <c r="C18" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="D18" t="n">
-        <v>19.67</v>
+        <v>9.67</v>
       </c>
       <c r="E18" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3.390000000000001</v>
+        <v>19.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.71</v>
+        <v>17.11</v>
       </c>
       <c r="C19" t="n">
-        <v>3.33</v>
+        <v>3.39</v>
       </c>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>13.06</v>
       </c>
       <c r="E19" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3.329999999999998</v>
+        <v>18.62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16.29</v>
+        <v>12.62</v>
       </c>
       <c r="C20" t="n">
-        <v>3.33</v>
+        <v>3.15</v>
       </c>
       <c r="D20" t="n">
-        <v>26.33</v>
+        <v>16.28</v>
       </c>
       <c r="E20" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3.329999999999998</v>
+        <v>16.61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10.97</v>
+        <v>10.26</v>
       </c>
       <c r="C21" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="D21" t="n">
-        <v>29.78</v>
+        <v>19.67</v>
       </c>
       <c r="E21" t="n">
-        <v>15.74</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3.450000000000003</v>
+        <v>16.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.89</v>
+        <v>18.71</v>
       </c>
       <c r="C22" t="n">
-        <v>3.38</v>
+        <v>3.33</v>
       </c>
       <c r="D22" t="n">
-        <v>33.17</v>
+        <v>23</v>
       </c>
       <c r="E22" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3.390000000000001</v>
+        <v>16.41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.83</v>
+        <v>16.29</v>
       </c>
       <c r="C23" t="n">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="D23" t="n">
-        <v>36.56</v>
+        <v>26.33</v>
       </c>
       <c r="E23" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3.390000000000001</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28.74</v>
+        <v>10.97</v>
       </c>
       <c r="C24" t="n">
-        <v>4.25</v>
+        <v>3.45</v>
       </c>
       <c r="D24" t="n">
-        <v>41.08</v>
+        <v>29.78</v>
       </c>
       <c r="E24" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4.519999999999996</v>
+        <v>15.74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.07</v>
+        <v>32.98</v>
       </c>
       <c r="C25" t="n">
-        <v>3.91</v>
+        <v>5.13</v>
       </c>
       <c r="D25" t="n">
-        <v>7.85</v>
+        <v>44.96</v>
       </c>
       <c r="E25" t="n">
-        <v>22.08</v>
-      </c>
-      <c r="F25" t="n">
-        <v>7.85</v>
+        <v>22.49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.37</v>
+        <v>33.21</v>
       </c>
       <c r="C26" t="n">
-        <v>4.07</v>
+        <v>5.12</v>
       </c>
       <c r="D26" t="n">
-        <v>11.95</v>
+        <v>50.08</v>
       </c>
       <c r="E26" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4.1</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>17.58</v>
+        <v>32.41</v>
       </c>
       <c r="C27" t="n">
-        <v>4.11</v>
+        <v>6.23</v>
       </c>
       <c r="D27" t="n">
-        <v>16.13</v>
+        <v>56.91</v>
       </c>
       <c r="E27" t="n">
-        <v>20.62</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4.18</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.61</v>
+        <v>16.07</v>
       </c>
       <c r="C28" t="n">
-        <v>4.21</v>
+        <v>3.91</v>
       </c>
       <c r="D28" t="n">
-        <v>21.18</v>
+        <v>7.85</v>
       </c>
       <c r="E28" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="F28" t="n">
-        <v>5.050000000000001</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>28.11</v>
+        <v>19.37</v>
       </c>
       <c r="C29" t="n">
-        <v>4.59</v>
+        <v>4.07</v>
       </c>
       <c r="D29" t="n">
-        <v>25.77</v>
+        <v>11.95</v>
       </c>
       <c r="E29" t="n">
-        <v>21.05</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4.59</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.39</v>
+        <v>17.58</v>
       </c>
       <c r="C30" t="n">
-        <v>4.41</v>
+        <v>4.11</v>
       </c>
       <c r="D30" t="n">
-        <v>30.18</v>
+        <v>16.13</v>
       </c>
       <c r="E30" t="n">
-        <v>20.34</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4.41</v>
+        <v>20.62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26.92</v>
+        <v>21.61</v>
       </c>
       <c r="C31" t="n">
-        <v>4.92</v>
+        <v>4.21</v>
       </c>
       <c r="D31" t="n">
-        <v>35.37</v>
+        <v>21.18</v>
       </c>
       <c r="E31" t="n">
-        <v>22.14</v>
-      </c>
-      <c r="F31" t="n">
-        <v>5.189999999999998</v>
+        <v>19.73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>23.65</v>
+        <v>28.11</v>
       </c>
       <c r="C32" t="n">
-        <v>4.81</v>
+        <v>4.59</v>
       </c>
       <c r="D32" t="n">
-        <v>39.81</v>
+        <v>25.77</v>
       </c>
       <c r="E32" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="F32" t="n">
-        <v>4.440000000000005</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.98</v>
+        <v>16.39</v>
       </c>
       <c r="C33" t="n">
-        <v>5.13</v>
+        <v>4.41</v>
       </c>
       <c r="D33" t="n">
-        <v>44.96</v>
+        <v>30.18</v>
       </c>
       <c r="E33" t="n">
-        <v>22.49</v>
-      </c>
-      <c r="F33" t="n">
-        <v>5.149999999999999</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.21</v>
+        <v>26.92</v>
       </c>
       <c r="C34" t="n">
-        <v>5.12</v>
+        <v>4.92</v>
       </c>
       <c r="D34" t="n">
-        <v>50.08</v>
+        <v>35.37</v>
       </c>
       <c r="E34" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="F34" t="n">
-        <v>5.119999999999997</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.41</v>
+        <v>23.65</v>
       </c>
       <c r="C35" t="n">
-        <v>6.23</v>
+        <v>4.81</v>
       </c>
       <c r="D35" t="n">
-        <v>56.91</v>
+        <v>39.81</v>
       </c>
       <c r="E35" t="n">
-        <v>24.92</v>
-      </c>
-      <c r="F35" t="n">
-        <v>6.829999999999998</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25.96</v>
+        <v>4.99</v>
       </c>
       <c r="C36" t="n">
-        <v>5.22</v>
+        <v>5.4401</v>
       </c>
       <c r="D36" t="n">
-        <v>10.54</v>
+        <v>51.8662</v>
       </c>
       <c r="E36" t="n">
-        <v>26.91</v>
-      </c>
-      <c r="F36" t="n">
-        <v>10.54</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.72</v>
+        <v>6.7</v>
       </c>
       <c r="C37" t="n">
-        <v>5.39</v>
+        <v>5.5241</v>
       </c>
       <c r="D37" t="n">
-        <v>15.96</v>
+        <v>57.3155</v>
       </c>
       <c r="E37" t="n">
-        <v>26.09</v>
-      </c>
-      <c r="F37" t="n">
-        <v>5.420000000000002</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.11</v>
+        <v>-8.85</v>
       </c>
       <c r="C38" t="n">
-        <v>5.08</v>
+        <v>5.6798</v>
       </c>
       <c r="D38" t="n">
-        <v>20.64</v>
+        <v>63.3912</v>
       </c>
       <c r="E38" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="F38" t="n">
-        <v>4.68</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23.37</v>
+        <v>25.96</v>
       </c>
       <c r="C39" t="n">
-        <v>5.2405</v>
+        <v>5.22</v>
       </c>
       <c r="D39" t="n">
-        <v>25.8803</v>
+        <v>10.54</v>
       </c>
       <c r="E39" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="F39" t="n">
-        <v>5.240299999999998</v>
+        <v>26.91</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.53</v>
+        <v>24.72</v>
       </c>
       <c r="C40" t="n">
-        <v>4.9447</v>
+        <v>5.39</v>
       </c>
       <c r="D40" t="n">
-        <v>31.3988</v>
+        <v>15.96</v>
       </c>
       <c r="E40" t="n">
-        <v>21.17</v>
-      </c>
-      <c r="F40" t="n">
-        <v>5.518500000000003</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15.55</v>
+        <v>16.11</v>
       </c>
       <c r="C41" t="n">
-        <v>5.1879</v>
+        <v>5.08</v>
       </c>
       <c r="D41" t="n">
-        <v>36.0576</v>
+        <v>20.64</v>
       </c>
       <c r="E41" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F41" t="n">
-        <v>4.658799999999999</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.96</v>
+        <v>23.37</v>
       </c>
       <c r="C42" t="n">
-        <v>5.2691</v>
+        <v>5.2405</v>
       </c>
       <c r="D42" t="n">
-        <v>41.3267</v>
+        <v>25.8803</v>
       </c>
       <c r="E42" t="n">
-        <v>17.13</v>
-      </c>
-      <c r="F42" t="n">
-        <v>5.269100000000002</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.74</v>
+        <v>7.53</v>
       </c>
       <c r="C43" t="n">
-        <v>5.7304</v>
+        <v>4.9447</v>
       </c>
       <c r="D43" t="n">
-        <v>52.9969</v>
+        <v>31.3988</v>
       </c>
       <c r="E43" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="F43" t="n">
-        <v>11.67019999999999</v>
+        <v>21.17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.99</v>
+        <v>15.55</v>
       </c>
       <c r="C44" t="n">
-        <v>5.4401</v>
+        <v>5.1879</v>
       </c>
       <c r="D44" t="n">
-        <v>51.8662</v>
+        <v>36.0576</v>
       </c>
       <c r="E44" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="F44" t="n">
-        <v>51.8662</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6.7</v>
+        <v>7.96</v>
       </c>
       <c r="C45" t="n">
-        <v>5.5241</v>
+        <v>5.2691</v>
       </c>
       <c r="D45" t="n">
-        <v>57.3155</v>
+        <v>41.3267</v>
       </c>
       <c r="E45" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="F45" t="n">
-        <v>5.449300000000001</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-8.85</v>
+        <v>4.74</v>
       </c>
       <c r="C46" t="n">
-        <v>5.6798</v>
+        <v>5.7304</v>
       </c>
       <c r="D46" t="n">
-        <v>63.3912</v>
+        <v>52.9969</v>
       </c>
       <c r="E46" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F46" t="n">
-        <v>6.075699999999998</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5.9</v>
+      </c>
       <c r="D47" t="n">
-        <v>11.444</v>
+        <v>61.6</v>
       </c>
       <c r="E47" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F47" t="n">
-        <v>11.444</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>18.33</v>
+        <v>7.3</v>
       </c>
       <c r="C48" t="n">
-        <v>6.318</v>
+        <v>6.5</v>
       </c>
       <c r="D48" t="n">
-        <v>17.994</v>
+        <v>68.3</v>
       </c>
       <c r="E48" t="n">
-        <v>14.61</v>
-      </c>
-      <c r="F48" t="n">
-        <v>6.549999999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="C49" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="D49" t="n">
-        <v>23.7</v>
+        <v>74.8</v>
       </c>
       <c r="E49" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>5.706</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="C50" t="n">
-        <v>6.1</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>31.1</v>
+        <v>11.444</v>
       </c>
       <c r="E50" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F50" t="n">
-        <v>7.400000000000002</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>14.7</v>
+        <v>18.33</v>
       </c>
       <c r="C51" t="n">
-        <v>6.1</v>
+        <v>6.318</v>
       </c>
       <c r="D51" t="n">
-        <v>36.4</v>
+        <v>17.994</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
-      </c>
-      <c r="F51" t="n">
-        <v>5.299999999999997</v>
+        <v>14.61</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>10.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="D52" t="n">
-        <v>43.1</v>
+        <v>23.7</v>
       </c>
       <c r="E52" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F52" t="n">
-        <v>6.700000000000003</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="C53" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="D53" t="n">
-        <v>49.7</v>
+        <v>31.1</v>
       </c>
       <c r="E53" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F53" t="n">
-        <v>6.600000000000001</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5.7</v>
+        <v>14.7</v>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="D54" t="n">
-        <v>55.7</v>
+        <v>36.4</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
-      </c>
-      <c r="F54" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.7</v>
+        <v>10.5</v>
       </c>
       <c r="C55" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="D55" t="n">
-        <v>61.6</v>
+        <v>43.1</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
-      </c>
-      <c r="F55" t="n">
-        <v>5.899999999999999</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7.3</v>
+        <v>9.4</v>
       </c>
       <c r="C56" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D56" t="n">
-        <v>68.3</v>
+        <v>49.7</v>
       </c>
       <c r="E56" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F56" t="n">
-        <v>6.699999999999996</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
       <c r="C57" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>74.8</v>
+        <v>55.7</v>
       </c>
       <c r="E57" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5.9</v>
+      </c>
       <c r="D58" t="n">
-        <v>12.5</v>
+        <v>57</v>
       </c>
       <c r="E58" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F58" t="n">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.3</v>
+        <v>14.3</v>
       </c>
       <c r="C59" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D59" t="n">
-        <v>19.1</v>
+        <v>63.9</v>
       </c>
       <c r="E59" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F59" t="n">
-        <v>6.600000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="C60" t="n">
         <v>6.4</v>
       </c>
       <c r="D60" t="n">
-        <v>25.4</v>
+        <v>70.2</v>
       </c>
       <c r="E60" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F60" t="n">
-        <v>6.299999999999997</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C61" t="n">
-        <v>6.2</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>31.6</v>
+        <v>12.5</v>
       </c>
       <c r="E61" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F61" t="n">
-        <v>6.200000000000003</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>7.8</v>
+        <v>-0.3</v>
       </c>
       <c r="C62" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="D62" t="n">
-        <v>33.3</v>
+        <v>19.1</v>
       </c>
       <c r="E62" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1.699999999999996</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.7</v>
+        <v>7.1</v>
       </c>
       <c r="C63" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="D63" t="n">
-        <v>38.7</v>
+        <v>25.4</v>
       </c>
       <c r="E63" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F63" t="n">
-        <v>5.400000000000006</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="C64" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="D64" t="n">
-        <v>44.6</v>
+        <v>31.6</v>
       </c>
       <c r="E64" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F64" t="n">
-        <v>5.899999999999999</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>11.4</v>
+        <v>7.8</v>
       </c>
       <c r="C65" t="n">
         <v>5.7</v>
       </c>
       <c r="D65" t="n">
-        <v>51.1</v>
+        <v>33.3</v>
       </c>
       <c r="E65" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F65" t="n">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>15.3</v>
+        <v>-0.7</v>
       </c>
       <c r="C66" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="D66" t="n">
-        <v>57</v>
+        <v>38.7</v>
       </c>
       <c r="E66" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5.899999999999999</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>14.3</v>
+        <v>7.2</v>
       </c>
       <c r="C67" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="D67" t="n">
-        <v>63.9</v>
+        <v>44.6</v>
       </c>
       <c r="E67" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F67" t="n">
-        <v>6.899999999999999</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>8.5</v>
+        <v>11.4</v>
       </c>
       <c r="C68" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="D68" t="n">
-        <v>70.2</v>
+        <v>51.1</v>
       </c>
       <c r="E68" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F68" t="n">
-        <v>6.300000000000004</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C69" t="n">
+        <v>5.8</v>
+      </c>
       <c r="D69" t="n">
-        <v>11.8</v>
+        <v>60</v>
       </c>
       <c r="E69" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="F69" t="n">
-        <v>11.8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="C70" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="D70" t="n">
-        <v>17.5</v>
+        <v>66.3</v>
       </c>
       <c r="E70" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F70" t="n">
-        <v>5.699999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>9.4</v>
+        <v>4.2</v>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="D71" t="n">
-        <v>23.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F71" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="C72" t="n">
-        <v>5.8</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>29.4</v>
+        <v>11.8</v>
       </c>
       <c r="E72" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5.899999999999999</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>9.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="D73" t="n">
-        <v>35.6</v>
+        <v>17.5</v>
       </c>
       <c r="E73" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F73" t="n">
-        <v>6.200000000000003</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C74" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>41.5</v>
+        <v>23.5</v>
       </c>
       <c r="E74" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F74" t="n">
-        <v>5.899999999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.6</v>
+        <v>10.1</v>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="D75" t="n">
-        <v>47.7</v>
+        <v>29.4</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
-      </c>
-      <c r="F75" t="n">
-        <v>6.200000000000003</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>6.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C76" t="n">
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>54.1</v>
+        <v>35.6</v>
       </c>
       <c r="E76" t="n">
-        <v>8</v>
-      </c>
-      <c r="F76" t="n">
-        <v>6.399999999999999</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C77" t="n">
         <v>5.8</v>
       </c>
       <c r="D77" t="n">
-        <v>60</v>
+        <v>41.5</v>
       </c>
       <c r="E77" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F77" t="n">
-        <v>5.899999999999999</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="C78" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>66.3</v>
+        <v>47.7</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
-      </c>
-      <c r="F78" t="n">
-        <v>6.299999999999997</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="C79" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>72.59999999999999</v>
+        <v>54.1</v>
       </c>
       <c r="E79" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F79" t="n">
-        <v>6.299999999999997</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6.9</v>
+      </c>
       <c r="D80" t="n">
-        <v>13.4</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F80" t="n">
-        <v>13.4</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>15.9</v>
+        <v>18.8</v>
       </c>
       <c r="C81" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="D81" t="n">
-        <v>20.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F81" t="n">
-        <v>7.1</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>12.6</v>
+        <v>14.5</v>
       </c>
       <c r="C82" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="D82" t="n">
-        <v>27.3</v>
+        <v>88.8</v>
       </c>
       <c r="E82" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F82" t="n">
-        <v>6.800000000000001</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C83" t="n">
-        <v>6.9</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>34.4</v>
+        <v>13.4</v>
       </c>
       <c r="E83" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="F83" t="n">
-        <v>7.099999999999998</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>15.4</v>
+        <v>15.9</v>
       </c>
       <c r="C84" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="D84" t="n">
-        <v>41.5</v>
+        <v>20.5</v>
       </c>
       <c r="E84" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F84" t="n">
-        <v>7.100000000000001</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>21.9</v>
+        <v>12.6</v>
       </c>
       <c r="C85" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="D85" t="n">
-        <v>48.9</v>
+        <v>27.3</v>
       </c>
       <c r="E85" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="F85" t="n">
-        <v>7.399999999999999</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>14.3</v>
+        <v>16.1</v>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="D86" t="n">
-        <v>55.8</v>
+        <v>34.4</v>
       </c>
       <c r="E86" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F86" t="n">
-        <v>6.899999999999999</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>17.2</v>
+        <v>15.4</v>
       </c>
       <c r="C87" t="n">
         <v>7.1</v>
       </c>
       <c r="D87" t="n">
-        <v>63.5</v>
+        <v>41.5</v>
       </c>
       <c r="E87" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F87" t="n">
-        <v>7.700000000000003</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>16.4</v>
+        <v>21.9</v>
       </c>
       <c r="C88" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="D88" t="n">
-        <v>70.40000000000001</v>
+        <v>48.9</v>
       </c>
       <c r="E88" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="F88" t="n">
-        <v>6.900000000000006</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>18.8</v>
+        <v>14.3</v>
       </c>
       <c r="C89" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D89" t="n">
-        <v>78.59999999999999</v>
+        <v>55.8</v>
       </c>
       <c r="E89" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="F89" t="n">
-        <v>8.199999999999989</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>14.5</v>
+        <v>17.2</v>
       </c>
       <c r="C90" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="D90" t="n">
-        <v>88.8</v>
+        <v>63.5</v>
       </c>
       <c r="E90" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F90" t="n">
-        <v>10.2</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>9.1</v>
+      </c>
       <c r="D91" t="n">
-        <v>14.8</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F91" t="n">
-        <v>14.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>10.5</v>
+        <v>3.1</v>
       </c>
       <c r="C92" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="D92" t="n">
-        <v>23</v>
+        <v>89.5</v>
       </c>
       <c r="E92" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F92" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>8.1</v>
+        <v>35.1</v>
       </c>
       <c r="C93" t="n">
-        <v>7.9</v>
+        <v>11.5</v>
       </c>
       <c r="D93" t="n">
-        <v>30.9</v>
+        <v>102.3</v>
       </c>
       <c r="E93" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F93" t="n">
-        <v>7.899999999999999</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C94" t="n">
-        <v>8.1</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>39.1</v>
+        <v>14.8</v>
       </c>
       <c r="E94" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F94" t="n">
-        <v>8.200000000000003</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1.8</v>
+        <v>10.5</v>
       </c>
       <c r="C95" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="D95" t="n">
-        <v>46.7</v>
+        <v>23</v>
       </c>
       <c r="E95" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F95" t="n">
-        <v>7.600000000000001</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4.8</v>
+        <v>8.1</v>
       </c>
       <c r="C96" t="n">
         <v>7.9</v>
       </c>
       <c r="D96" t="n">
-        <v>54.6</v>
+        <v>30.9</v>
       </c>
       <c r="E96" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F96" t="n">
-        <v>7.899999999999999</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>10.8</v>
+        <v>15.8</v>
       </c>
       <c r="C97" t="n">
         <v>8.1</v>
       </c>
       <c r="D97" t="n">
-        <v>62.7</v>
+        <v>39.1</v>
       </c>
       <c r="E97" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F97" t="n">
-        <v>8.100000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>10.8</v>
+        <v>-1.8</v>
       </c>
       <c r="C98" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="D98" t="n">
-        <v>71.2</v>
+        <v>46.7</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
-      </c>
-      <c r="F98" t="n">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>13.5</v>
+        <v>4.8</v>
       </c>
       <c r="C99" t="n">
-        <v>9.1</v>
+        <v>7.9</v>
       </c>
       <c r="D99" t="n">
-        <v>80.40000000000001</v>
+        <v>54.6</v>
       </c>
       <c r="E99" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F99" t="n">
-        <v>9.200000000000003</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3.1</v>
+        <v>10.8</v>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="D100" t="n">
-        <v>89.5</v>
+        <v>62.7</v>
       </c>
       <c r="E100" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F100" t="n">
-        <v>9.099999999999994</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>35.1</v>
+        <v>10.8</v>
       </c>
       <c r="C101" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="D101" t="n">
-        <v>102.3</v>
+        <v>71.2</v>
       </c>
       <c r="E101" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F101" t="n">
-        <v>12.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C102" t="n">
+        <v>8.710000000000001</v>
+      </c>
       <c r="D102" t="n">
-        <v>16.5</v>
+        <v>85.7</v>
       </c>
       <c r="E102" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F102" t="n">
-        <v>16.5</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>14.6</v>
+        <v>5.35</v>
       </c>
       <c r="C103" t="n">
-        <v>8.800000000000001</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>25.3</v>
+        <v>94.83</v>
       </c>
       <c r="E103" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F103" t="n">
-        <v>8.800000000000001</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>5.9</v>
+        <v>-6.81</v>
       </c>
       <c r="C104" t="n">
-        <v>8.300000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="D104" t="n">
-        <v>33.5</v>
+        <v>104.73</v>
       </c>
       <c r="E104" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F104" t="n">
-        <v>8.199999999999999</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C105" t="n">
-        <v>8.56</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>43.42</v>
+        <v>16.5</v>
       </c>
       <c r="E105" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="F105" t="n">
-        <v>9.920000000000002</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>7.59</v>
+        <v>14.6</v>
       </c>
       <c r="C106" t="n">
-        <v>8.18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>50.79</v>
+        <v>25.3</v>
       </c>
       <c r="E106" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="F106" t="n">
-        <v>7.369999999999997</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>5.12</v>
+        <v>5.9</v>
       </c>
       <c r="C107" t="n">
-        <v>8.18</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>58.44</v>
+        <v>33.5</v>
       </c>
       <c r="E107" t="n">
-        <v>9</v>
-      </c>
-      <c r="F107" t="n">
-        <v>7.649999999999999</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>8.51</v>
+        <v>3.9</v>
       </c>
       <c r="C108" t="n">
-        <v>8.539999999999999</v>
+        <v>8.56</v>
       </c>
       <c r="D108" t="n">
-        <v>67.02</v>
+        <v>43.42</v>
       </c>
       <c r="E108" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="F108" t="n">
-        <v>8.579999999999998</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4.36</v>
+        <v>7.59</v>
       </c>
       <c r="C109" t="n">
-        <v>8.529999999999999</v>
+        <v>8.18</v>
       </c>
       <c r="D109" t="n">
-        <v>75.52</v>
+        <v>50.79</v>
       </c>
       <c r="E109" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="F109" t="n">
-        <v>8.5</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2.21</v>
+        <v>5.12</v>
       </c>
       <c r="C110" t="n">
-        <v>8.710000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="D110" t="n">
-        <v>85.7</v>
+        <v>58.44</v>
       </c>
       <c r="E110" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="F110" t="n">
-        <v>10.18000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>5.35</v>
+        <v>8.51</v>
       </c>
       <c r="C111" t="n">
-        <v>9.119999999999999</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>94.83</v>
+        <v>67.02</v>
       </c>
       <c r="E111" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="F111" t="n">
-        <v>9.129999999999995</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-6.81</v>
+        <v>4.36</v>
       </c>
       <c r="C112" t="n">
-        <v>9.67</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>104.73</v>
+        <v>75.52</v>
       </c>
       <c r="E112" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="F112" t="n">
-        <v>9.900000000000006</v>
+        <v>8.359999999999999</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="D113" t="n">
+        <v>93.73</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="C114" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="D114" t="n">
+        <v>104.07</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="D115" t="n">
+        <v>115.49</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9.869999999999999</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="E116" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="D117" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="D118" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="D119" t="n">
+        <v>46.61</v>
+      </c>
+      <c r="E119" t="n">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="D120" t="n">
+        <v>55.73</v>
+      </c>
+      <c r="E120" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="D122" t="n">
+        <v>75.59</v>
+      </c>
+      <c r="E122" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="D123" t="n">
+        <v>85.34999999999999</v>
+      </c>
+      <c r="E123" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="E124" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="C125" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="E125" t="n">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>13.91</v>
+      </c>
+      <c r="C126" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="D126" t="n">
+        <v>42.09</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12.62</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="C127" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="D127" t="n">
+        <v>53.04</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="C128" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D128" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="E128" t="n">
+        <v>13.74</v>
       </c>
     </row>
   </sheetData>
